--- a/doc/개발표준1.0.xlsx
+++ b/doc/개발표준1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\newproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\topcinema\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5294C1-F438-4CA8-B665-D77B11CA1D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBACF04-362F-47DF-8839-BA781333973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발환경" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="메뉴구성 (2)" sheetId="11" r:id="rId8"/>
     <sheet name="메뉴구성" sheetId="8" r:id="rId9"/>
     <sheet name="테이블" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId11"/>
+    <sheet name="테이블명" sheetId="14" r:id="rId11"/>
     <sheet name="테이블 컬럼명" sheetId="13" r:id="rId12"/>
     <sheet name="컬럼명" sheetId="10" r:id="rId13"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId14"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1300">
   <si>
     <t>1. 예약 관리 시스템</t>
   </si>
@@ -6693,391 +6693,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사용자명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이메일</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 전화번호</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사용자구분(일반</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관리자)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사용여부</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 비밀번호</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 회원구분(틴틴 등)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 가입일자</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 회원등급(vip</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vvip</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> platinum)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 생년월일</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 메뉴코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 등록</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 수정</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 삭제</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조회 권한</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 영화코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 등록일자</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 결제코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쿠폰코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 무비구분(보고싶은영화</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 본영화)</t>
-  </si>
-  <si>
     <t>지역정보코드</t>
   </si>
   <si>
-    <t xml:space="preserve"> 지역정보명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 지역구분(1:시도</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:시군구)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 영화명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상영시간</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 나이제한</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상영구분</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관람수</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 개봉일자</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관심건수</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스토리</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 장르</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 국적</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 감독</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 트레일러코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 트레일러명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 트레일러영상명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스틸컷코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스틸컷이미지명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 출연진코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 출연진명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 작성일시</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사용자코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관람평</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 공감건수</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별점</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관람관코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상영일자</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 예약건수</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 영화관명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 주소</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 대중교통안내</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 주차안내</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 지도좌표</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 지역코드</t>
-  </si>
-  <si>
-    <t>관람관구분(일반관</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스페셜관)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관람관구분(2D 일반석</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3D 등)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상영구분(조조</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 일반 등)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상영요일(주중</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 주말)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 성인</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 청소년</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 경로</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 장애인</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 어린이</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 좌석구조코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 좌석수</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관람관명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관람관구분(광음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스페셜 등)</t>
-  </si>
-  <si>
-    <t>영화관ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 좌석구조명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이벤트명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이벤트구분(영화</t>
-  </si>
-  <si>
-    <t>제휴할인 등)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이벤트이미지명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 유의사항</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이벤트시작일자</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이벤트종료일자</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 당첨구분</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 응모일자</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 응모내용</t>
-  </si>
-  <si>
     <t>우리동네이벤트코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 영화관(입력안해도 됨)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제목</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내용</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상품구분(스낵</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 카드 등)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상품명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상품내용</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 가격</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 구성품</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 구매제한</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 유효기간</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사용가능영화관</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 종수</t>
-  </si>
-  <si>
-    <t>스토어안내코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 대분류</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 중분류</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 소분류</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 메뉴명</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 공지구분(전체</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 영화관)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조회건수</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 문의분류</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 문의종류</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 첨부파일</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 답변수신여부</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 개인정보수집동의여부</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FAQ구분(영화관이용</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스페셜관</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L.POINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 회원 등)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 영화관코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 분실일</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 분실시작시간</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 분실종료시간</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 종류</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 색상</t>
   </si>
   <si>
     <t>테이블명(논리)</t>
@@ -7183,9 +6802,6 @@
     <t>cinema_movie_screenings</t>
   </si>
   <si>
-    <t>cinemas</t>
-  </si>
-  <si>
     <t>영화요금정보</t>
   </si>
   <si>
@@ -7243,9 +6859,6 @@
   </si>
   <si>
     <t>메뉴정보</t>
-  </si>
-  <si>
-    <t>menus</t>
   </si>
   <si>
     <t>공지사항정보</t>
@@ -10308,6 +9921,238 @@
   </si>
   <si>
     <t>6. FileUploadConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinemas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역정보명</t>
+  </si>
+  <si>
+    <t>작성일시</t>
+  </si>
+  <si>
+    <t>관람평</t>
+  </si>
+  <si>
+    <t>공감건수</t>
+  </si>
+  <si>
+    <t>성인</t>
+  </si>
+  <si>
+    <t>청소년</t>
+  </si>
+  <si>
+    <t>경로</t>
+  </si>
+  <si>
+    <t>장애인</t>
+  </si>
+  <si>
+    <t>어린이</t>
+  </si>
+  <si>
+    <t>관람관명</t>
+  </si>
+  <si>
+    <t>좌석구조명</t>
+  </si>
+  <si>
+    <t>메뉴명</t>
+  </si>
+  <si>
+    <t>사용자구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관람관구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실종료시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴중분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품종류수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로명코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화이미지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석행번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석열번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10499,7 +10344,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10558,9 +10403,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10942,15 +10784,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1308</v>
+        <v>1179</v>
       </c>
       <c r="B14" t="s">
-        <v>1306</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1307</v>
+        <v>1178</v>
       </c>
       <c r="B15" t="s">
         <v>505</v>
@@ -10966,8 +10808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11253,8 +11095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E49B88D-FAA8-4218-BCF5-645B6E07BAF3}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11266,130 +11108,130 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>1056</v>
+        <v>929</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1057</v>
+        <v>930</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>1058</v>
+        <v>931</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1059</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>1060</v>
+        <v>933</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1061</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>1062</v>
+        <v>935</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1063</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>1064</v>
+        <v>937</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1065</v>
+        <v>938</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>1066</v>
+        <v>939</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1067</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>1068</v>
+        <v>941</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1069</v>
+        <v>942</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>1070</v>
+        <v>943</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1071</v>
+        <v>944</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
-        <v>1072</v>
+        <v>945</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1073</v>
+        <v>946</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="12" t="s">
-        <v>1074</v>
+        <v>947</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1075</v>
+        <v>948</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
-        <v>1076</v>
+        <v>949</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1077</v>
+        <v>950</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="12" t="s">
-        <v>1078</v>
+        <v>951</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1079</v>
+        <v>952</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>1080</v>
+        <v>953</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1081</v>
+        <v>954</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>1082</v>
+        <v>955</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1083</v>
+        <v>956</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>1084</v>
+        <v>957</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1085</v>
+        <v>958</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>1086</v>
+        <v>959</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1087</v>
+        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11397,92 +11239,92 @@
         <v>530</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1088</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>1089</v>
+        <v>961</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1090</v>
+        <v>962</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>1091</v>
+        <v>963</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1092</v>
+        <v>964</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="12" t="s">
-        <v>1093</v>
+        <v>965</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>1094</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>1095</v>
+        <v>967</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1096</v>
+        <v>968</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="12" t="s">
-        <v>1097</v>
+        <v>969</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1098</v>
+        <v>970</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
-        <v>1099</v>
+        <v>971</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1100</v>
+        <v>972</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="12" t="s">
-        <v>1101</v>
+        <v>973</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1102</v>
+        <v>974</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="12" t="s">
-        <v>1103</v>
+        <v>975</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1104</v>
+        <v>976</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
-        <v>1105</v>
+        <v>977</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1106</v>
+        <v>978</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>1107</v>
+        <v>979</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1108</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
-        <v>1109</v>
+        <v>980</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>597</v>
@@ -11490,26 +11332,26 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
-        <v>1110</v>
+        <v>981</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>1111</v>
+        <v>982</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
-        <v>1112</v>
+        <v>983</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>1113</v>
+        <v>984</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="12" t="s">
-        <v>1114</v>
+        <v>985</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>1115</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -11520,925 +11362,1048 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C14B35-B4FC-453D-9A5A-DEC648A7F75F}">
-  <dimension ref="A1:A182"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" s="12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" s="12" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="12" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="12" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="12" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="12" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="12" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="12" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="12" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="12" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="12" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="12" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" s="12" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" s="12" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+    <row r="30" spans="1:3">
+      <c r="C30" s="12" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="12" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="C33" s="12" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="C34" s="12" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" s="12" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="C36" s="12" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" s="12" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="C38" s="12" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="C39" s="12" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="C40" s="12" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="C41" s="12" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="C42" s="12" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="C43" s="12" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" s="12" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="C45" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" s="12" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="12" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="C55" s="12" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" s="12" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="C59" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="C61" s="12" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="C62" s="12" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+    <row r="63" spans="1:3">
+      <c r="C63" s="12" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="C64" s="12" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="C65" s="12" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="C67" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="C68" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="C69" s="12" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="C70" s="12" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="C71" s="12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="C73" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="C74" s="12" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="C75" s="12" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="C76" s="12" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="C77" s="12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="C78" s="12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="C79" s="12" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="C80" s="12" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="C81" s="12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="C84" s="12" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="C85" s="12" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="C86" s="12" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="C87" s="12" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="C88" s="12" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="C89" s="12" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="C90" s="12" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="C92" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="C93" s="12" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="C94" s="12" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="C95" s="12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="C97" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="C99" s="12" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="C100" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="C101" s="12" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="C102" s="12" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="C103" s="12" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="C105" s="12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="C106" s="12" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="C107" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="C108" s="12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="C109" s="12" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="C110" s="12" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="C112" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="C113" s="12" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="C114" s="12" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="C115" s="12" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="12" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="12" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="12" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="12" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="12" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="12" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="12" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="12" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="12" t="s">
+    <row r="117" spans="1:3">
+      <c r="C117" s="12" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="C118" s="12" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="C119" s="12" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="C120" s="12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="C121" s="12" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="C122" s="12" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="C124" s="12" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="C125" s="12" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="C126" s="12" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="C127" s="12" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="C128" s="12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="C129" s="12" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="C130" s="12" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="C131" s="12" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="C132" s="12" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="C134" s="12" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="C135" s="12" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="C137" s="12" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="C138" s="12" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="C139" s="12" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="C140" s="12" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="C142" s="12" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="C143" s="12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="C144" s="12" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="C145" s="12" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="C146" s="12" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="C148" s="12" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="C149" s="12" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="C150" s="12" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="C151" s="12" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="C152" s="12" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="C153" s="12" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="C154" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="C155" s="12" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="12" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="12" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="12" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="12" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="12" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="12" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="12" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="12" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="12" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="12" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="12" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="12" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="12" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="12" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="12" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="12" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="12" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="12" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="12" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="12" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="12" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="12" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="12" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="12" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="12" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="12" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="12" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="12" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="12" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="12" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="12" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="12" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="12" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="12" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="12" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="12" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="12" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="12" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="12" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="12" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="12" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="12" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="12" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="12" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="12" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="12" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="12" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="12" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="12" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="12" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="12" t="s">
+    <row r="156" spans="1:3">
+      <c r="A156" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="C157" s="12" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="C158" s="12" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="C159" s="12" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="C160" s="12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="C162" s="12" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="12" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="12" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="12" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="12" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="12" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="12" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="12" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="12" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="12" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="12" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="12" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="12" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="12" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="12" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="12" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="12" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="12" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="12" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="12" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="12" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="12" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="12" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="12" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="12" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="12" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="12" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="12" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="12" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="12" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="12" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="12" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="12" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="12" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="12" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="12" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="12" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="12" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="12" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="12" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="12" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="12" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="12" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="12" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="12" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="12" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="12" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="12" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="12" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="12" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="12" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="12" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="12" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="12" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="12" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="12" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="12" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="12" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="12" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="12" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="12" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="12" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="12" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="12" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="12" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="12" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="12" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="12" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="12" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="12" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="12" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="12" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="12" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="12" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="12" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="12" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="12" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="12" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="12" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="12" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="12" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="12" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="12" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="12" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="12" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="12" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="12" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="12" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="12" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="12" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="12" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="12" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="12" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="12" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="12" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="12" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="12" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="12" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="12" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="12" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="12" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="12" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="12" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="12" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="12" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="12" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="12" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="12" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="12" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="12" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="12" t="s">
-        <v>1045</v>
+    <row r="163" spans="1:3">
+      <c r="C163" s="12" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="C164" s="12" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="C165" s="12" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="C166" s="12" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="C167" s="12" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="C168" s="12" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="C169" s="12" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="C170" s="12" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -12452,7 +12417,7 @@
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12607,13 +12572,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
-        <v>1117</v>
+        <v>988</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1118</v>
+        <v>989</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>1119</v>
+        <v>990</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -12706,7 +12671,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="13" t="s">
-        <v>1116</v>
+        <v>987</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>709</v>
@@ -14222,17 +14187,17 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1167</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1166</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1146</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14242,74 +14207,74 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>1168</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1149</v>
+        <v>1020</v>
       </c>
       <c r="B10" t="s">
-        <v>1150</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1151</v>
+        <v>1022</v>
       </c>
       <c r="B11" t="s">
-        <v>1147</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1152</v>
+        <v>1023</v>
       </c>
       <c r="B12" t="s">
-        <v>1148</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1153</v>
+        <v>1024</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1154</v>
+        <v>1025</v>
       </c>
       <c r="B14" t="s">
-        <v>1155</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1156</v>
+        <v>1027</v>
       </c>
       <c r="B15" t="s">
-        <v>1157</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1158</v>
+        <v>1029</v>
       </c>
       <c r="B16" t="s">
-        <v>1157</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1159</v>
+        <v>1030</v>
       </c>
       <c r="B17" t="s">
-        <v>1160</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1161</v>
+        <v>1032</v>
       </c>
       <c r="B18" s="11">
         <v>17</v>
@@ -14317,110 +14282,110 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1162</v>
+        <v>1033</v>
       </c>
       <c r="B19" t="s">
-        <v>1163</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>1164</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>1165</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>1335</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="15" t="s">
-        <v>1169</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="15" t="s">
-        <v>1170</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="15" t="s">
-        <v>1171</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="15" t="s">
-        <v>1172</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="15" t="s">
-        <v>1173</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="15" t="s">
-        <v>1174</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="15" t="s">
-        <v>1175</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="15" t="s">
-        <v>1325</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="15" t="s">
-        <v>1326</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="15" t="s">
-        <v>1327</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="15" t="s">
-        <v>1328</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="15" t="s">
-        <v>1329</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="15" t="s">
-        <v>1330</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="15" t="s">
-        <v>1331</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="18" t="s">
-        <v>1332</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="15" t="s">
-        <v>1333</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="15" t="s">
-        <v>1334</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -14428,57 +14393,57 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>1340</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>1176</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="15" t="s">
-        <v>1178</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="15" t="s">
-        <v>1336</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="15" t="s">
-        <v>1179</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="16" t="s">
-        <v>1180</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="15" t="s">
-        <v>1181</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="17" t="s">
-        <v>1182</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="16" t="s">
-        <v>1337</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="17" t="s">
-        <v>1338</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="17" t="s">
-        <v>1339</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -14493,102 +14458,102 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1356</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="15" t="s">
-        <v>1176</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="15" t="s">
-        <v>1177</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="15" t="s">
-        <v>1178</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="15" t="s">
-        <v>1341</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="15" t="s">
-        <v>1342</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="15" t="s">
-        <v>1343</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="16" t="s">
-        <v>1180</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="15" t="s">
-        <v>1344</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="17" t="s">
-        <v>1345</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="16" t="s">
-        <v>1346</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="17" t="s">
-        <v>1347</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="17" t="s">
-        <v>1348</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="17" t="s">
-        <v>1349</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="17" t="s">
-        <v>1350</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="18" t="s">
-        <v>1351</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="18" t="s">
-        <v>1352</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="17" t="s">
-        <v>1353</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="17" t="s">
-        <v>1354</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="17" t="s">
-        <v>1355</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -14603,82 +14568,82 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>1367</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="15" t="s">
-        <v>1176</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="15" t="s">
-        <v>1357</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="15" t="s">
-        <v>1177</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="15" t="s">
-        <v>1178</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="15" t="s">
-        <v>1358</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="15" t="s">
-        <v>1359</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="16" t="s">
-        <v>1180</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="15" t="s">
-        <v>1360</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="17" t="s">
-        <v>1345</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="16" t="s">
-        <v>1361</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="17" t="s">
-        <v>1362</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="17" t="s">
-        <v>1363</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="18" t="s">
-        <v>1364</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="18" t="s">
-        <v>1365</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="18" t="s">
-        <v>1366</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -15023,12 +14988,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21">
       <c r="A1" s="2" t="s">
-        <v>1324</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
       <c r="A4" s="2" t="s">
-        <v>1323</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21">
@@ -16141,132 +16106,132 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21">
       <c r="A1" s="2" t="s">
-        <v>1311</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21">
       <c r="A2" s="2" t="s">
-        <v>1313</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1309</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1120</v>
+        <v>991</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1315</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1122</v>
+        <v>993</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1317</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1123</v>
+        <v>994</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1124</v>
+        <v>995</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1120</v>
+        <v>991</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1145</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1123</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1318</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1310</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1316</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1125</v>
+        <v>996</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
       <c r="A18" s="2" t="s">
-        <v>1312</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1309</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1120</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1121</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1120</v>
+        <v>991</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1145</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1120</v>
+        <v>991</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1314</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21">
       <c r="A27" s="2" t="s">
-        <v>1126</v>
+        <v>997</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1127</v>
+        <v>998</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -16274,17 +16239,17 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>1128</v>
+        <v>999</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="8" t="s">
-        <v>1129</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8" t="s">
-        <v>1130</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -16292,30 +16257,30 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1183</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1319</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="21" t="s">
-        <v>1320</v>
+      <c r="A39" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21">
       <c r="A41" s="2" t="s">
-        <v>1131</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1132</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -16323,17 +16288,17 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>1133</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="8" t="s">
-        <v>1134</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="8" t="s">
-        <v>1184</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -16341,12 +16306,12 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>1321</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>1196</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -16354,42 +16319,42 @@
     </row>
     <row r="56" spans="1:1" ht="21">
       <c r="A56" s="2" t="s">
-        <v>1322</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="7" t="s">
-        <v>1185</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="7" t="s">
-        <v>1186</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="7" t="s">
-        <v>1187</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>1193</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="7" t="s">
-        <v>1194</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="7" t="s">
-        <v>1195</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1188</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -16410,42 +16375,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1291</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1136</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1137</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1197</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1138</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1198</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1199</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -16455,57 +16420,57 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1139</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1200</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1201</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1202</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1203</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1204</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1205</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1206</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1207</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1208</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1209</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -16520,17 +16485,17 @@
     </row>
     <row r="28" spans="1:1" ht="21">
       <c r="A28" s="2" t="s">
-        <v>1292</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1210</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21">
       <c r="A31" s="2" t="s">
-        <v>1211</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -16538,7 +16503,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>1212</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -16553,12 +16518,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="8" t="s">
-        <v>1144</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21">
       <c r="A39" s="2" t="s">
-        <v>1213</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -16566,7 +16531,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>1214</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -16581,17 +16546,17 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="8" t="s">
-        <v>1215</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1216</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21">
       <c r="A49" s="2" t="s">
-        <v>1217</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -16599,7 +16564,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>1218</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -16614,12 +16579,12 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="8" t="s">
-        <v>1219</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="21">
       <c r="A57" s="2" t="s">
-        <v>1220</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -16627,7 +16592,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>1221</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -16642,17 +16607,17 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="8" t="s">
-        <v>1222</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="8" t="s">
-        <v>1223</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="21">
       <c r="A67" s="2" t="s">
-        <v>1224</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -16660,7 +16625,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>1225</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -16675,12 +16640,12 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="8" t="s">
-        <v>1226</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21">
       <c r="A75" s="2" t="s">
-        <v>1227</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -16688,7 +16653,7 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="3" t="s">
-        <v>1228</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -16696,7 +16661,7 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="3" t="s">
-        <v>1229</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -16711,12 +16676,12 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="8" t="s">
-        <v>1230</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21">
       <c r="A85" s="2" t="s">
-        <v>1231</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -16724,17 +16689,17 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
-        <v>1232</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1233</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="8" t="s">
-        <v>1234</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -16744,17 +16709,17 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="8" t="s">
-        <v>1235</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>1236</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="21">
       <c r="A97" s="2" t="s">
-        <v>1237</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -16762,7 +16727,7 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>1238</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -16777,7 +16742,7 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="8" t="s">
-        <v>1239</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -16785,7 +16750,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>1240</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -16800,7 +16765,7 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="8" t="s">
-        <v>1241</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -16808,7 +16773,7 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>1242</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -16823,42 +16788,42 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="8" t="s">
-        <v>1243</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>1189</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="8" t="s">
-        <v>1190</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>1191</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="8" t="s">
-        <v>1192</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>1244</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="21">
       <c r="A128" s="2" t="s">
-        <v>1245</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>1246</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -16866,32 +16831,32 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="20" t="s">
-        <v>1247</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="20" t="s">
-        <v>1248</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="20" t="s">
-        <v>1249</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>1250</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="21">
       <c r="A138" s="2" t="s">
-        <v>1251</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>1252</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="142" spans="1:1">
@@ -16906,17 +16871,17 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="8" t="s">
-        <v>1253</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>1254</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="8" t="s">
-        <v>1135</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="149" spans="1:1">
@@ -16926,27 +16891,27 @@
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="8" t="s">
-        <v>1255</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="8" t="s">
-        <v>1256</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="8" t="s">
-        <v>1257</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="8" t="s">
-        <v>1258</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="8" t="s">
-        <v>1259</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="156" spans="1:1">
@@ -16956,52 +16921,52 @@
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="8" t="s">
-        <v>1260</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="8" t="s">
-        <v>1261</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="8" t="s">
-        <v>1262</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="8" t="s">
-        <v>1263</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="8" t="s">
-        <v>1264</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="8" t="s">
-        <v>1265</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="8" t="s">
-        <v>1266</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="8" t="s">
-        <v>1267</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="8" t="s">
-        <v>1268</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="8" t="s">
-        <v>1269</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="170" spans="1:1">
@@ -17011,12 +16976,12 @@
     </row>
     <row r="172" spans="1:1" ht="21">
       <c r="A172" s="2" t="s">
-        <v>1270</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>1271</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="175" spans="1:1">
@@ -17024,7 +16989,7 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>1272</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="178" spans="1:1">
@@ -17039,7 +17004,7 @@
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="8" t="s">
-        <v>1273</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -17047,7 +17012,7 @@
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>1274</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="183" spans="1:1">
@@ -17055,12 +17020,12 @@
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="3" t="s">
-        <v>1275</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="8" t="s">
-        <v>1135</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="187" spans="1:1">
@@ -17070,37 +17035,37 @@
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="8" t="s">
-        <v>1136</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="8" t="s">
-        <v>1276</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="8" t="s">
-        <v>1277</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="8" t="s">
-        <v>1278</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="8" t="s">
-        <v>1279</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="8" t="s">
-        <v>1138</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="8" t="s">
-        <v>1280</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="197" spans="1:1">
@@ -17110,37 +17075,37 @@
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="8" t="s">
-        <v>1281</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="8" t="s">
-        <v>1139</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="8" t="s">
-        <v>1282</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="8" t="s">
-        <v>1140</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="8" t="s">
-        <v>1141</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="8" t="s">
-        <v>1142</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="8" t="s">
-        <v>1143</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="206" spans="1:1">
@@ -17158,7 +17123,7 @@
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>1283</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="210" spans="1:1">
@@ -17166,7 +17131,7 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="3" t="s">
-        <v>1284</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="213" spans="1:1">
@@ -17181,7 +17146,7 @@
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="8" t="s">
-        <v>1285</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="216" spans="1:1">
@@ -17189,7 +17154,7 @@
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="4" t="s">
-        <v>1286</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="218" spans="1:1">
@@ -17197,7 +17162,7 @@
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="3" t="s">
-        <v>1287</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="221" spans="1:1">
@@ -17212,12 +17177,12 @@
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="8" t="s">
-        <v>1288</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="8" t="s">
-        <v>1289</v>
+        <v>1160</v>
       </c>
     </row>
   </sheetData>
@@ -17238,7 +17203,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21">
       <c r="A1" s="2" t="s">
-        <v>1293</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -17246,7 +17211,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>1294</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -17257,17 +17222,17 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>1295</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>1296</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>1297</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -17275,7 +17240,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>1298</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -17286,12 +17251,12 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
-        <v>1299</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>1300</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -17299,7 +17264,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>1301</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -17310,7 +17275,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>1302</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -17318,7 +17283,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>1303</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -17329,12 +17294,12 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>1304</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>1305</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
